--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elbr\Documents\HCP\Project Work\SEAwise\Task 4.1\extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467082EE-F387-42C0-94EA-868995B36CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15996"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -20,6 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$32</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -54,13 +56,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -366,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -471,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -602,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -629,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -677,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -703,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -735,7 +737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -916,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1027,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1051,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1077,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1204,13 +1206,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1234,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1303,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1374,7 +1376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1399,7 +1401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1467,7 +1469,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1491,7 +1493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1516,7 +1518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1545,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1597,7 +1599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1621,7 +1623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1645,7 +1647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1752,7 +1754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1779,7 +1781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1803,7 +1805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1827,7 +1829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1885,7 +1887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2066,7 +2068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2099,7 +2101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2150,7 +2152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2177,7 +2179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2201,7 +2203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2225,7 +2227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2250,7 +2252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2275,7 +2277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2300,7 +2302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2324,7 +2326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2354,12 +2356,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2389,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="390">
   <si>
     <t>SearchID</t>
   </si>
@@ -3581,11 +3583,17 @@
   <si>
     <t>Sessile fragile benthos abundance</t>
   </si>
+  <si>
+    <t>Discarding _ Escapement</t>
+  </si>
+  <si>
+    <t>Discards generated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3738,6 +3746,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3759,8 +3769,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4058,107 +4066,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX32" sqref="AX32"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13" style="18" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="18" customWidth="1"/>
-    <col min="6" max="17" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="18"/>
-    <col min="19" max="19" width="18.109375" style="18" customWidth="1"/>
-    <col min="20" max="23" width="13" style="18"/>
-    <col min="24" max="25" width="32.6640625" style="18" customWidth="1"/>
-    <col min="26" max="33" width="13" style="18"/>
-    <col min="34" max="35" width="17.6640625" style="18" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" style="18" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" style="18" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" style="18" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="18" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" style="18" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" style="18" customWidth="1"/>
-    <col min="43" max="45" width="13" style="18"/>
-    <col min="46" max="46" width="15.109375" style="18" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" style="18" customWidth="1"/>
-    <col min="48" max="48" width="18" style="18" customWidth="1"/>
-    <col min="49" max="16384" width="13" style="18"/>
+    <col min="1" max="2" width="13" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="13" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="13" style="11"/>
+    <col min="19" max="19" width="18.109375" style="11" customWidth="1"/>
+    <col min="20" max="23" width="13" style="11"/>
+    <col min="24" max="25" width="32.6640625" style="11" customWidth="1"/>
+    <col min="26" max="33" width="13" style="11"/>
+    <col min="34" max="35" width="17.6640625" style="11" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" style="11" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" style="11" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" style="11" customWidth="1"/>
+    <col min="40" max="41" width="15.88671875" style="11" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" style="11" customWidth="1"/>
+    <col min="43" max="45" width="13" style="11"/>
+    <col min="46" max="46" width="15.109375" style="11" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" style="11" customWidth="1"/>
+    <col min="48" max="48" width="18" style="11" customWidth="1"/>
+    <col min="49" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="12" t="s">
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4313,3428 +4323,3440 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <v>2006</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="11">
         <v>59</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="12">
         <v>44593</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="11">
         <v>63</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="11">
         <v>96</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AA3" s="11">
         <v>2</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="11">
         <v>2</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="11">
         <v>2</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="AQ3" s="18" t="s">
+      <c r="AM3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO3" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU3" s="18" t="s">
+      <c r="AU3" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AV3" s="18" t="s">
+      <c r="AV3" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="AW3" s="18" t="s">
+      <c r="AW3" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="18" t="s">
+      <c r="AX3" s="11" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="11">
         <v>2006</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="11">
         <v>59</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="12">
         <v>44593</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="11">
         <v>63</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="11">
         <v>96</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="11">
         <v>2</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="11">
         <v>2</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="11">
         <v>2</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AH4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL4" s="18" t="s">
+      <c r="AL4" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AM4" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AN4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AO4" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ4" s="18" t="s">
+      <c r="AQ4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AU4" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AV4" s="18" t="s">
+      <c r="AV4" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW4" s="18" t="s">
+      <c r="AW4" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX4" s="18" t="s">
+      <c r="AX4" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="11">
         <v>2006</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="11">
         <v>59</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="12">
         <v>44593</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="11">
         <v>63</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="11">
         <v>96</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="11">
         <v>2</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="11">
         <v>2</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="11">
         <v>2</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AG5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH5" s="18" t="s">
+      <c r="AH5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI5" s="18" t="s">
+      <c r="AI5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AL5" s="18" t="s">
+      <c r="AL5" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="AM5" s="18" t="s">
+      <c r="AM5" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN5" s="18" t="s">
+      <c r="AN5" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO5" s="18" t="s">
+      <c r="AO5" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ5" s="18" t="s">
+      <c r="AQ5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU5" s="18" t="s">
+      <c r="AU5" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AV5" s="18" t="s">
+      <c r="AV5" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW5" s="18" t="s">
+      <c r="AW5" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX5" s="18" t="s">
+      <c r="AX5" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="11">
         <v>2006</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="11">
         <v>59</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="12">
         <v>44593</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="11">
         <v>63</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="11">
         <v>96</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Z6" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="11">
         <v>2</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="11">
         <v>2</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="11">
         <v>2</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AF6" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG6" s="18" t="s">
+      <c r="AG6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH6" s="18" t="s">
+      <c r="AH6" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI6" s="18" t="s">
+      <c r="AI6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL6" s="18" t="s">
+      <c r="AL6" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="AM6" s="18" t="s">
+      <c r="AM6" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN6" s="18" t="s">
+      <c r="AN6" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO6" s="18" t="s">
+      <c r="AO6" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ6" s="18" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU6" s="18" t="s">
+      <c r="AU6" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AV6" s="18" t="s">
+      <c r="AV6" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW6" s="18" t="s">
+      <c r="AW6" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX6" s="18" t="s">
+      <c r="AX6" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>2006</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="11">
         <v>59</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="12">
         <v>44593</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="11">
         <v>63</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="11">
         <v>96</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="T7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="Z7" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="11">
         <v>2</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="11">
         <v>2</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="11">
         <v>2</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG7" s="18" t="s">
+      <c r="AG7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH7" s="18" t="s">
+      <c r="AH7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI7" s="18" t="s">
+      <c r="AI7" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL7" s="18" t="s">
+      <c r="AL7" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="AM7" s="18" t="s">
+      <c r="AM7" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN7" s="18" t="s">
+      <c r="AN7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO7" s="18" t="s">
+      <c r="AO7" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ7" s="18" t="s">
+      <c r="AQ7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU7" s="18" t="s">
+      <c r="AU7" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AV7" s="18" t="s">
+      <c r="AV7" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW7" s="18" t="s">
+      <c r="AW7" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX7" s="18" t="s">
+      <c r="AX7" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="11">
         <v>2006</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="11">
         <v>59</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="12">
         <v>44593</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="11">
         <v>63</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="11">
         <v>96</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V8" s="18" t="s">
+      <c r="V8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="W8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X8" s="18" t="s">
+      <c r="X8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z8" s="18" t="s">
+      <c r="Z8" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="11">
         <v>2</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="11">
         <v>2</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="11">
         <v>2</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG8" s="18" t="s">
+      <c r="AG8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH8" s="18" t="s">
+      <c r="AH8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI8" s="18" t="s">
+      <c r="AI8" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL8" s="18" t="s">
+      <c r="AL8" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="AM8" s="18" t="s">
+      <c r="AM8" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN8" s="18" t="s">
+      <c r="AN8" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO8" s="18" t="s">
+      <c r="AO8" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ8" s="18" t="s">
+      <c r="AQ8" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU8" s="18" t="s">
+      <c r="AU8" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AV8" s="18" t="s">
+      <c r="AV8" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW8" s="18" t="s">
+      <c r="AW8" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX8" s="18" t="s">
+      <c r="AX8" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="11">
         <v>2006</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="11">
         <v>59</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="12">
         <v>44593</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="11">
         <v>63</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="11">
         <v>96</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AA9" s="11">
         <v>2</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="11">
         <v>2</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="11">
         <v>2</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF9" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG9" s="18" t="s">
+      <c r="AG9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH9" s="18" t="s">
+      <c r="AH9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI9" s="18" t="s">
+      <c r="AI9" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="AL9" s="18" t="s">
+      <c r="AL9" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="AM9" s="18" t="s">
+      <c r="AM9" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN9" s="18" t="s">
+      <c r="AN9" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AO9" s="18" t="s">
+      <c r="AO9" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ9" s="18" t="s">
+      <c r="AQ9" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU9" s="18" t="s">
+      <c r="AU9" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="AV9" s="18" t="s">
+      <c r="AV9" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW9" s="18" t="s">
+      <c r="AW9" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX9" s="18" t="s">
+      <c r="AX9" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>2006</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="11">
         <v>59</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="12">
         <v>44593</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="11">
         <v>63</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="11">
         <v>96</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X10" s="18" t="s">
+      <c r="X10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z10" s="18" t="s">
+      <c r="Z10" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AA10" s="11">
         <v>2</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="11">
         <v>2</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="11">
         <v>2</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG10" s="18" t="s">
+      <c r="AG10" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH10" s="18" t="s">
+      <c r="AH10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI10" s="18" t="s">
+      <c r="AI10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AL10" s="18" t="s">
+      <c r="AL10" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="AM10" s="18" t="s">
+      <c r="AM10" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN10" s="18" t="s">
+      <c r="AN10" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO10" s="18" t="s">
+      <c r="AO10" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ10" s="18" t="s">
+      <c r="AQ10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AU10" s="18" t="s">
+      <c r="AU10" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="AV10" s="18" t="s">
+      <c r="AV10" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW10" s="18" t="s">
+      <c r="AW10" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX10" s="18" t="s">
+      <c r="AX10" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="11">
         <v>2006</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="11">
         <v>59</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="12">
         <v>44593</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="11">
         <v>63</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="11">
         <v>96</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="Z11" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AA11" s="11">
         <v>2</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB11" s="11">
         <v>2</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="11">
         <v>2</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG11" s="18" t="s">
+      <c r="AG11" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH11" s="18" t="s">
+      <c r="AH11" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AI11" s="18" t="s">
+      <c r="AI11" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AJ11" s="18" t="s">
+      <c r="AJ11" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AL11" s="18" t="s">
+      <c r="AL11" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="AM11" s="18" t="s">
+      <c r="AM11" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN11" s="18" t="s">
+      <c r="AN11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO11" s="18" t="s">
+      <c r="AO11" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ11" s="18" t="s">
+      <c r="AQ11" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR11" s="18" t="s">
+      <c r="AR11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AT11" s="18" t="s">
+      <c r="AT11" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="AU11" s="18" t="s">
+      <c r="AU11" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV11" s="18" t="s">
+      <c r="AV11" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW11" s="18" t="s">
+      <c r="AW11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX11" s="18" t="s">
+      <c r="AX11" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>2006</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="11">
         <v>59</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="12">
         <v>44593</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="11">
         <v>63</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="11">
         <v>96</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="V12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W12" s="18" t="s">
+      <c r="W12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X12" s="18" t="s">
+      <c r="X12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z12" s="18" t="s">
+      <c r="Z12" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AA12" s="11">
         <v>2</v>
       </c>
-      <c r="AB12" s="18">
+      <c r="AB12" s="11">
         <v>2</v>
       </c>
-      <c r="AC12" s="18">
+      <c r="AC12" s="11">
         <v>2</v>
       </c>
-      <c r="AF12" s="18">
+      <c r="AF12" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AG12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH12" s="18" t="s">
+      <c r="AH12" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AI12" s="18" t="s">
+      <c r="AI12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AL12" s="18" t="s">
+      <c r="AL12" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="AM12" s="18" t="s">
+      <c r="AM12" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN12" s="18" t="s">
+      <c r="AN12" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO12" s="18" t="s">
+      <c r="AO12" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ12" s="18" t="s">
+      <c r="AQ12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR12" s="18" t="s">
+      <c r="AR12" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AT12" s="18" t="s">
+      <c r="AT12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="AU12" s="18" t="s">
+      <c r="AU12" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV12" s="18" t="s">
+      <c r="AV12" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW12" s="18" t="s">
+      <c r="AW12" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX12" s="18" t="s">
+      <c r="AX12" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="11">
         <v>2006</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="11">
         <v>59</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="12">
         <v>44593</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="11">
         <v>63</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="11">
         <v>96</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U13" s="18" t="s">
+      <c r="U13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="V13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W13" s="18" t="s">
+      <c r="W13" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X13" s="18" t="s">
+      <c r="X13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z13" s="18" t="s">
+      <c r="Z13" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AA13" s="11">
         <v>2</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="11">
         <v>2</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="11">
         <v>2</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG13" s="18" t="s">
+      <c r="AG13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH13" s="18" t="s">
+      <c r="AH13" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI13" s="18" t="s">
+      <c r="AI13" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL13" s="18" t="s">
+      <c r="AL13" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="AM13" s="18" t="s">
+      <c r="AM13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN13" s="18" t="s">
+      <c r="AN13" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO13" s="18" t="s">
+      <c r="AO13" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ13" s="18" t="s">
+      <c r="AQ13" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR13" s="18" t="s">
+      <c r="AR13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AT13" s="18" t="s">
+      <c r="AT13" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="AU13" s="18" t="s">
+      <c r="AU13" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV13" s="18" t="s">
+      <c r="AV13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW13" s="18" t="s">
+      <c r="AW13" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX13" s="18" t="s">
+      <c r="AX13" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="11">
         <v>2006</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="11">
         <v>59</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="12">
         <v>44593</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="11">
         <v>63</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="11">
         <v>96</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="18" t="s">
+      <c r="T14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W14" s="18" t="s">
+      <c r="W14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z14" s="18" t="s">
+      <c r="Z14" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AA14" s="11">
         <v>2</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB14" s="11">
         <v>2</v>
       </c>
-      <c r="AC14" s="18">
+      <c r="AC14" s="11">
         <v>2</v>
       </c>
-      <c r="AF14" s="18">
+      <c r="AF14" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG14" s="18" t="s">
+      <c r="AG14" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH14" s="18" t="s">
+      <c r="AH14" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AI14" s="18" t="s">
+      <c r="AI14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="AJ14" s="18" t="s">
+      <c r="AJ14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="AL14" s="18" t="s">
+      <c r="AL14" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="AM14" s="18" t="s">
+      <c r="AM14" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN14" s="18" t="s">
+      <c r="AN14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO14" s="18" t="s">
+      <c r="AO14" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ14" s="18" t="s">
+      <c r="AQ14" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR14" s="18" t="s">
+      <c r="AR14" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AT14" s="18" t="s">
+      <c r="AT14" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AU14" s="18" t="s">
+      <c r="AU14" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV14" s="18" t="s">
+      <c r="AV14" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW14" s="18" t="s">
+      <c r="AW14" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX14" s="18" t="s">
+      <c r="AX14" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="11">
         <v>2006</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="11">
         <v>59</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="12">
         <v>44593</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="11">
         <v>63</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="11">
         <v>96</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="V15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W15" s="18" t="s">
+      <c r="W15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z15" s="18" t="s">
+      <c r="Z15" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AA15" s="11">
         <v>2</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AB15" s="11">
         <v>2</v>
       </c>
-      <c r="AC15" s="18">
+      <c r="AC15" s="11">
         <v>2</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AF15" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG15" s="18" t="s">
+      <c r="AG15" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH15" s="18" t="s">
+      <c r="AH15" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AI15" s="18" t="s">
+      <c r="AI15" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AL15" s="18" t="s">
+      <c r="AL15" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="AM15" s="18" t="s">
+      <c r="AM15" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN15" s="18" t="s">
+      <c r="AN15" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO15" s="18" t="s">
+      <c r="AO15" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ15" s="18" t="s">
+      <c r="AQ15" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR15" s="18" t="s">
+      <c r="AR15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AT15" s="18" t="s">
+      <c r="AT15" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AU15" s="18" t="s">
+      <c r="AU15" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV15" s="18" t="s">
+      <c r="AV15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW15" s="18" t="s">
+      <c r="AW15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX15" s="18" t="s">
+      <c r="AX15" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="11">
         <v>2006</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="11">
         <v>59</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="12">
         <v>44593</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="11">
         <v>63</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="11">
         <v>96</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T16" s="18" t="s">
+      <c r="T16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="18" t="s">
+      <c r="U16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V16" s="18" t="s">
+      <c r="V16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="W16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X16" s="18" t="s">
+      <c r="X16" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Z16" s="18" t="s">
+      <c r="Z16" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AA16" s="11">
         <v>2</v>
       </c>
-      <c r="AB16" s="18">
+      <c r="AB16" s="11">
         <v>2</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="11">
         <v>2</v>
       </c>
-      <c r="AF16" s="18">
+      <c r="AF16" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG16" s="18" t="s">
+      <c r="AG16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AH16" s="18" t="s">
+      <c r="AH16" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AI16" s="18" t="s">
+      <c r="AI16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AL16" s="18" t="s">
+      <c r="AL16" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="AM16" s="18" t="s">
+      <c r="AM16" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN16" s="18" t="s">
+      <c r="AN16" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO16" s="18" t="s">
+      <c r="AO16" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="AQ16" s="18" t="s">
+      <c r="AQ16" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR16" s="18" t="s">
+      <c r="AR16" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AT16" s="18" t="s">
+      <c r="AT16" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AU16" s="18" t="s">
+      <c r="AU16" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="AV16" s="18" t="s">
+      <c r="AV16" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW16" s="18" t="s">
+      <c r="AW16" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX16" s="18" t="s">
+      <c r="AX16" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="11">
         <v>2005</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="11">
         <v>25</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="11">
         <v>2387</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="11">
         <v>2409</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="V17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="X17" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Z17" s="18" t="s">
+      <c r="Z17" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AA17" s="18">
+      <c r="AA17" s="11">
         <v>2</v>
       </c>
-      <c r="AB17" s="18">
+      <c r="AB17" s="11">
         <v>3</v>
       </c>
-      <c r="AC17" s="18">
+      <c r="AC17" s="11">
         <v>3</v>
       </c>
-      <c r="AF17" s="18" t="s">
+      <c r="AF17" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG17" s="18" t="s">
+      <c r="AG17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH17" s="18" t="s">
+      <c r="AH17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AI17" s="18" t="s">
+      <c r="AI17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AK17" s="18" t="s">
+      <c r="AK17" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AM17" s="18" t="s">
+      <c r="AM17" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AQ17" s="18" t="s">
+      <c r="AQ17" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR17" s="18" t="s">
+      <c r="AR17" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AS17" s="18" t="s">
+      <c r="AS17" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AU17" s="18" t="s">
+      <c r="AU17" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AV17" s="18" t="s">
+      <c r="AV17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AW17" s="18" t="s">
+      <c r="AW17" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX17" s="18" t="s">
+      <c r="AX17" s="11" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="11">
         <v>2005</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="11">
         <v>25</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="11">
         <v>2387</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="11">
         <v>2409</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="18" t="s">
+      <c r="U18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V18" s="18" t="s">
+      <c r="V18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="W18" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="X18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="Z18" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="11">
         <v>2</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="11">
         <v>3</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="11">
         <v>3</v>
       </c>
-      <c r="AF18" s="18" t="s">
+      <c r="AF18" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AG18" s="18" t="s">
+      <c r="AG18" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH18" s="18" t="s">
+      <c r="AH18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AI18" s="18" t="s">
+      <c r="AI18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AK18" s="18" t="s">
+      <c r="AK18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AM18" s="18" t="s">
+      <c r="AM18" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AQ18" s="18" t="s">
+      <c r="AQ18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR18" s="18" t="s">
+      <c r="AR18" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="AS18" s="18" t="s">
+      <c r="AS18" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="AU18" s="18" t="s">
+      <c r="AU18" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AW18" s="18" t="s">
+      <c r="AW18" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="11">
         <v>2005</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="11">
         <v>25</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="11">
         <v>2554</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="11">
         <v>2569</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="18" t="s">
+      <c r="T19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="18" t="s">
+      <c r="U19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V19" s="18" t="s">
+      <c r="V19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W19" s="18" t="s">
+      <c r="W19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X19" s="18" t="s">
+      <c r="X19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="18" t="s">
+      <c r="Y19" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="Z19" s="18" t="s">
+      <c r="Z19" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AA19" s="18">
+      <c r="AA19" s="11">
         <v>2</v>
       </c>
-      <c r="AB19" s="18">
+      <c r="AB19" s="11">
         <v>2</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="11">
         <v>2</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="11">
         <v>4.3</v>
       </c>
-      <c r="AG19" s="18" t="s">
+      <c r="AG19" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH19" s="18" t="s">
+      <c r="AH19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AI19" s="18" t="s">
+      <c r="AI19" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AK19" s="18" t="s">
+      <c r="AK19" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AL19" s="18" t="s">
+      <c r="AL19" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AM19" s="18" t="s">
+      <c r="AM19" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AP19" s="18" t="s">
+      <c r="AP19" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AQ19" s="18" t="s">
+      <c r="AQ19" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR19" s="18" t="s">
+      <c r="AR19" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AU19" s="18" t="s">
+      <c r="AU19" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AV19" s="18" t="s">
+      <c r="AV19" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW19" s="18" t="s">
+      <c r="AW19" s="11" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="11">
         <v>2005</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="11">
         <v>25</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="11">
         <v>2554</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="11">
         <v>2569</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="U20" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V20" s="18" t="s">
+      <c r="V20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="W20" s="18" t="s">
+      <c r="W20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="X20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="Y20" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="Z20" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AA20" s="18">
+      <c r="AA20" s="11">
         <v>2</v>
       </c>
-      <c r="AB20" s="18">
+      <c r="AB20" s="11">
         <v>2</v>
       </c>
-      <c r="AC20" s="18">
+      <c r="AC20" s="11">
         <v>2</v>
       </c>
-      <c r="AF20" s="18">
+      <c r="AF20" s="11">
         <v>4.3</v>
       </c>
-      <c r="AG20" s="18" t="s">
+      <c r="AG20" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH20" s="18" t="s">
+      <c r="AH20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AI20" s="18" t="s">
+      <c r="AI20" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="AK20" s="18" t="s">
+      <c r="AK20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="AL20" s="18" t="s">
+      <c r="AL20" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AM20" s="18" t="s">
+      <c r="AM20" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AP20" s="18" t="s">
+      <c r="AP20" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AQ20" s="18" t="s">
+      <c r="AQ20" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR20" s="18" t="s">
+      <c r="AR20" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AU20" s="18" t="s">
+      <c r="AU20" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AV20" s="18" t="s">
+      <c r="AV20" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW20" s="18" t="s">
+      <c r="AW20" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX20" s="18" t="s">
+      <c r="AX20" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="11">
         <v>2005</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="11">
         <v>15</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="11">
         <v>3</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="11">
         <v>201</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="11">
         <v>203</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="T21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="U21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="V21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W21" s="18" t="s">
+      <c r="W21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="X21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Z21" s="18" t="s">
+      <c r="Z21" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AA21" s="18">
+      <c r="AA21" s="11">
         <v>2</v>
       </c>
-      <c r="AB21" s="18">
+      <c r="AB21" s="11">
         <v>2</v>
       </c>
-      <c r="AC21" s="18">
+      <c r="AC21" s="11">
         <v>1</v>
       </c>
-      <c r="AD21" s="18" t="s">
+      <c r="AD21" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="11">
         <v>4.2</v>
       </c>
-      <c r="AG21" s="18" t="s">
+      <c r="AG21" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH21" s="18" t="s">
+      <c r="AH21" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AI21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="AL21" s="18" t="s">
+      <c r="AL21" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AM21" s="18" t="s">
+      <c r="AM21" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN21" s="18" t="s">
+      <c r="AN21" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="AO21" s="18" t="s">
+      <c r="AO21" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AQ21" s="18" t="s">
+      <c r="AQ21" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="AT21" s="18" t="s">
+      <c r="AT21" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AU21" s="18" t="s">
+      <c r="AU21" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AV21" s="18" t="s">
+      <c r="AV21" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AW21" s="18" t="s">
+      <c r="AW21" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX21" s="18" t="s">
+      <c r="AX21" s="11" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="11">
         <v>2005</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="11">
         <v>320</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="11">
         <v>2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="11">
         <v>179</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="11">
         <v>193</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="18" t="s">
+      <c r="U22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="V22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="X22" s="18" t="s">
+      <c r="X22" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="18" t="s">
+      <c r="Z22" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AA22" s="18">
+      <c r="AA22" s="11">
         <v>2</v>
       </c>
-      <c r="AB22" s="18">
+      <c r="AB22" s="11">
         <v>2</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="11">
         <v>2</v>
       </c>
-      <c r="AF22" s="18">
-        <v>4.2</v>
-      </c>
-      <c r="AG22" s="18" t="s">
+      <c r="AF22" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH22" s="18" t="s">
+      <c r="AH22" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AI22" s="18" t="s">
+      <c r="AI22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AJ22" s="18" t="s">
+      <c r="AJ22" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AL22" s="18" t="s">
+      <c r="AL22" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AM22" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ22" s="18" t="s">
+      <c r="AM22" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN22" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ22" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR22" s="18" t="s">
+      <c r="AR22" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AS22" s="18" t="s">
+      <c r="AS22" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AU22" s="18" t="s">
+      <c r="AU22" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AV22" s="18" t="s">
+      <c r="AV22" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="AW22" s="18" t="s">
+      <c r="AW22" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX22" s="18" t="s">
+      <c r="AX22" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="11">
         <v>2005</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="11">
         <v>62</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="11">
         <v>4</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="11">
         <v>727</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="11">
         <v>739</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U23" s="18" t="s">
+      <c r="U23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="18" t="s">
+      <c r="V23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W23" s="18" t="s">
+      <c r="W23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X23" s="18" t="s">
+      <c r="X23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y23" s="18" t="s">
+      <c r="Y23" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="Z23" s="18" t="s">
+      <c r="Z23" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AA23" s="18">
+      <c r="AA23" s="11">
         <v>3</v>
       </c>
-      <c r="AB23" s="18">
+      <c r="AB23" s="11">
         <v>2</v>
       </c>
-      <c r="AC23" s="18">
+      <c r="AC23" s="11">
         <v>2</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG23" s="18" t="s">
+      <c r="AG23" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH23" s="18" t="s">
+      <c r="AH23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AM23" s="18" t="s">
+      <c r="AM23" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN23" s="18" t="s">
+      <c r="AN23" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AP23" s="18" t="s">
+      <c r="AP23" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AQ23" s="18" t="s">
+      <c r="AQ23" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AR23" s="18" t="s">
+      <c r="AR23" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AS23" s="18" t="s">
+      <c r="AS23" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="AU23" s="18" t="s">
+      <c r="AU23" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AV23" s="18" t="s">
+      <c r="AV23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX23" s="18" t="s">
+      <c r="AX23" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="11">
         <v>2005</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="11">
         <v>62</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="11">
         <v>4</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="11">
         <v>727</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="11">
         <v>739</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T24" s="18" t="s">
+      <c r="T24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U24" s="18" t="s">
+      <c r="U24" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="18" t="s">
+      <c r="V24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="W24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X24" s="18" t="s">
+      <c r="X24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y24" s="18" t="s">
+      <c r="Y24" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="Z24" s="18" t="s">
+      <c r="Z24" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AA24" s="18">
+      <c r="AA24" s="11">
         <v>3</v>
       </c>
-      <c r="AB24" s="18">
+      <c r="AB24" s="11">
         <v>2</v>
       </c>
-      <c r="AC24" s="18">
+      <c r="AC24" s="11">
         <v>2</v>
       </c>
-      <c r="AF24" s="18">
+      <c r="AF24" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG24" s="18" t="s">
+      <c r="AG24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH24" s="18" t="s">
+      <c r="AH24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AM24" s="18" t="s">
+      <c r="AM24" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN24" s="18" t="s">
+      <c r="AN24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AP24" s="18" t="s">
+      <c r="AP24" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AQ24" s="18" t="s">
+      <c r="AQ24" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AR24" s="18" t="s">
+      <c r="AR24" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AU24" s="18" t="s">
+      <c r="AU24" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AV24" s="18" t="s">
+      <c r="AV24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX24" s="18" t="s">
+      <c r="AX24" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="11">
         <v>2005</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="11">
         <v>62</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="11">
         <v>4</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="11">
         <v>727</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="11">
         <v>739</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="Q25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="T25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U25" s="18" t="s">
+      <c r="U25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="V25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W25" s="18" t="s">
+      <c r="W25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X25" s="18" t="s">
+      <c r="X25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y25" s="18" t="s">
+      <c r="Y25" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="Z25" s="18" t="s">
+      <c r="Z25" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AA25" s="18">
+      <c r="AA25" s="11">
         <v>3</v>
       </c>
-      <c r="AB25" s="18">
+      <c r="AB25" s="11">
         <v>2</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="11">
         <v>2</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG25" s="18" t="s">
+      <c r="AG25" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH25" s="18" t="s">
+      <c r="AH25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AM25" s="18" t="s">
+      <c r="AM25" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN25" s="18" t="s">
+      <c r="AN25" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AP25" s="18" t="s">
+      <c r="AP25" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AQ25" s="18" t="s">
+      <c r="AQ25" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AR25" s="18" t="s">
+      <c r="AR25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AT25" s="18" t="s">
+      <c r="AT25" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AU25" s="18" t="s">
+      <c r="AU25" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AV25" s="18" t="s">
+      <c r="AV25" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX25" s="18" t="s">
+      <c r="AX25" s="11" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="11">
         <v>2005</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="11">
         <v>62</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="11">
         <v>2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="11">
         <v>177</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="11">
         <v>188</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="18" t="s">
+      <c r="T26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U26" s="18" t="s">
+      <c r="U26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V26" s="18" t="s">
+      <c r="V26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W26" s="18" t="s">
+      <c r="W26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="18" t="s">
+      <c r="X26" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="Z26" s="18" t="s">
+      <c r="Z26" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AA26" s="18">
+      <c r="AA26" s="11">
         <v>3</v>
       </c>
-      <c r="AB26" s="18">
+      <c r="AB26" s="11">
         <v>3</v>
       </c>
-      <c r="AC26" s="18">
+      <c r="AC26" s="11">
         <v>3</v>
       </c>
-      <c r="AF26" s="18">
+      <c r="AF26" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG26" s="18" t="s">
+      <c r="AG26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AH26" s="18" t="s">
+      <c r="AH26" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AL26" s="18" t="s">
+      <c r="AL26" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AM26" s="18" t="s">
+      <c r="AM26" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN26" s="18" t="s">
+      <c r="AN26" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO26" s="18" t="s">
+      <c r="AO26" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AQ26" s="18" t="s">
+      <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AT26" s="18" t="s">
+      <c r="AT26" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="AU26" s="18" t="s">
+      <c r="AU26" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="AV26" s="18" t="s">
+      <c r="AV26" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AW26" s="18" t="s">
+      <c r="AW26" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX26" s="18" t="s">
+      <c r="AX26" s="11" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="11">
         <v>2004</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="11">
         <v>51</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="11">
         <v>69</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="11">
         <v>76</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="18" t="s">
+      <c r="R27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF27" s="18">
+      <c r="AF27" s="11">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="11">
         <v>2004</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="11">
         <v>61</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="11">
         <v>35</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="11">
         <v>42</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="T28" s="18" t="s">
+      <c r="T28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="U28" s="18" t="s">
+      <c r="U28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V28" s="18" t="s">
+      <c r="V28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="W28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="X28" s="18" t="s">
+      <c r="X28" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="Z28" s="18" t="s">
+      <c r="Z28" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AA28" s="18">
+      <c r="AA28" s="11">
         <v>3</v>
       </c>
-      <c r="AB28" s="18">
+      <c r="AB28" s="11">
         <v>3</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="11">
         <v>3</v>
       </c>
-      <c r="AF28" s="18">
+      <c r="AF28" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG28" s="18" t="s">
+      <c r="AG28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AH28" s="18" t="s">
+      <c r="AH28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AL28" s="18" t="s">
+      <c r="AL28" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AM28" s="18" t="s">
+      <c r="AM28" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN28" s="18" t="s">
+      <c r="AN28" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO28" s="18" t="s">
+      <c r="AO28" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AQ28" s="18" t="s">
+      <c r="AQ28" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AT28" s="18" t="s">
+      <c r="AT28" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="AU28" s="18" t="s">
+      <c r="AU28" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="AV28" s="18" t="s">
+      <c r="AV28" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="AW28" s="18" t="s">
+      <c r="AW28" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX28" s="18" t="s">
+      <c r="AX28" s="11" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="11">
         <v>2003</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="11">
         <v>503</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="11">
         <v>59</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="11">
         <v>67</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AF29" s="18">
+      <c r="AF29" s="11">
         <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="11">
         <v>2003</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="11">
         <v>31</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="11">
         <v>275</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="11">
         <v>284</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="Q30" s="18" t="s">
+      <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T30" s="18" t="s">
+      <c r="T30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U30" s="18" t="s">
+      <c r="U30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V30" s="18" t="s">
+      <c r="V30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W30" s="18" t="s">
+      <c r="W30" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X30" s="18" t="s">
+      <c r="X30" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="Z30" s="18" t="s">
+      <c r="Z30" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AA30" s="18">
+      <c r="AA30" s="11">
         <v>2</v>
       </c>
-      <c r="AB30" s="18">
+      <c r="AB30" s="11">
         <v>3</v>
       </c>
-      <c r="AC30" s="18">
+      <c r="AC30" s="11">
         <v>2</v>
       </c>
-      <c r="AF30" s="18" t="s">
+      <c r="AF30" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="AG30" s="18" t="s">
+      <c r="AG30" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="AH30" s="18" t="s">
+      <c r="AH30" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="AL30" s="18" t="s">
+      <c r="AL30" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="AM30" s="18" t="s">
+      <c r="AM30" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AN30" s="18" t="s">
+      <c r="AN30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="AO30" s="18" t="s">
+      <c r="AO30" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="AQ30" s="18" t="s">
+      <c r="AQ30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" s="18" t="s">
+      <c r="AR30" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AS30" s="18" t="s">
+      <c r="AS30" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="AT30" s="18" t="s">
+      <c r="AT30" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="AU30" s="18" t="s">
+      <c r="AU30" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AV30" s="18" t="s">
+      <c r="AV30" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AW30" s="18" t="s">
+      <c r="AW30" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="AX30" s="18" t="s">
+      <c r="AX30" s="11" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="11">
         <v>2003</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="11">
         <v>67</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="11">
         <v>33</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="11">
         <v>45</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q31" s="18" t="s">
+      <c r="Q31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="18" t="s">
+      <c r="S31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U31" s="18" t="s">
+      <c r="U31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V31" s="18" t="s">
+      <c r="V31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W31" s="18" t="s">
+      <c r="W31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X31" s="18" t="s">
+      <c r="X31" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z31" s="18" t="s">
+      <c r="Z31" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AA31" s="18">
+      <c r="AA31" s="11">
         <v>3</v>
       </c>
-      <c r="AB31" s="18">
+      <c r="AB31" s="11">
         <v>1</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="11">
         <v>3</v>
       </c>
-      <c r="AF31" s="18">
+      <c r="AF31" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG31" s="18" t="s">
+      <c r="AG31" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH31" s="18" t="s">
+      <c r="AH31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AK31" s="18" t="s">
+      <c r="AK31" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AL31" s="18" t="s">
+      <c r="AL31" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="AM31" s="18" t="s">
+      <c r="AM31" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AO31" s="18" t="s">
+      <c r="AO31" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="AP31" s="18" t="s">
+      <c r="AP31" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="AQ31" s="18" t="s">
+      <c r="AQ31" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR31" s="18" t="s">
+      <c r="AR31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AS31" s="18" t="s">
+      <c r="AS31" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AU31" s="18" t="s">
+      <c r="AU31" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="AV31" s="18" t="s">
+      <c r="AV31" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW31" s="18" t="s">
+      <c r="AW31" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AX31" s="18" t="s">
+      <c r="AX31" s="11" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="11">
         <v>2003</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="11">
         <v>67</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="11">
         <v>33</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="11">
         <v>45</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="S32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T32" s="18" t="s">
+      <c r="T32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="18" t="s">
+      <c r="U32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V32" s="18" t="s">
+      <c r="V32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="W32" s="18" t="s">
+      <c r="W32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="X32" s="18" t="s">
+      <c r="X32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Z32" s="18" t="s">
+      <c r="Z32" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AA32" s="18">
+      <c r="AA32" s="11">
         <v>3</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AB32" s="11">
         <v>1</v>
       </c>
-      <c r="AC32" s="18">
+      <c r="AC32" s="11">
         <v>3</v>
       </c>
-      <c r="AF32" s="18">
+      <c r="AF32" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG32" s="18" t="s">
+      <c r="AG32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AH32" s="18" t="s">
+      <c r="AH32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AK32" s="18" t="s">
+      <c r="AK32" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="AL32" s="18" t="s">
+      <c r="AL32" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="AM32" s="18" t="s">
+      <c r="AM32" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AO32" s="18" t="s">
+      <c r="AO32" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="AP32" s="18" t="s">
+      <c r="AP32" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="AQ32" s="18" t="s">
+      <c r="AQ32" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR32" s="18" t="s">
+      <c r="AR32" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AS32" s="18" t="s">
+      <c r="AS32" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AU32" s="18" t="s">
+      <c r="AU32" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="AV32" s="18" t="s">
+      <c r="AV32" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW32" s="18" t="s">
+      <c r="AW32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="18" t="s">
+      <c r="AX32" s="11" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7749,14 +7771,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q22 P23:P1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q22 P23:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7766,97 +7788,97 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Brown.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AF3:AF32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG1:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000013000000}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
@@ -7869,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
@@ -7887,64 +7909,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="14" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="15" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -8944,7 +8966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -8983,51 +9005,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="12" t="s">
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
     </row>
     <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -9856,21 +9878,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9984,17 +9991,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10008,17 +10031,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467082EE-F387-42C0-94EA-868995B36CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDC3F4-C74A-4047-AE0F-B7D93D8C5171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4070,10 +4070,10 @@
   <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10033,13 +10033,13 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDC3F4-C74A-4047-AE0F-B7D93D8C5171}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68C7E7-7185-4682-A7A8-5B54FA99D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="390">
   <si>
     <t>SearchID</t>
   </si>
@@ -4070,41 +4070,41 @@
   <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomRight" activeCell="AW33" sqref="AW33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="13" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="11" customWidth="1"/>
     <col min="18" max="18" width="13" style="11"/>
-    <col min="19" max="19" width="18.109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="11" customWidth="1"/>
     <col min="20" max="23" width="13" style="11"/>
-    <col min="24" max="25" width="32.6640625" style="11" customWidth="1"/>
+    <col min="24" max="25" width="32.7109375" style="11" customWidth="1"/>
     <col min="26" max="33" width="13" style="11"/>
-    <col min="34" max="35" width="17.6640625" style="11" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" style="11" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" style="11" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" style="11" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" style="11" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" style="11" customWidth="1"/>
+    <col min="34" max="35" width="17.7109375" style="11" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" style="11" customWidth="1"/>
+    <col min="37" max="37" width="19.140625" style="11" customWidth="1"/>
+    <col min="38" max="38" width="17.7109375" style="11" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" style="11" customWidth="1"/>
+    <col min="40" max="41" width="15.85546875" style="11" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" style="11" customWidth="1"/>
     <col min="43" max="45" width="13" style="11"/>
-    <col min="46" max="46" width="15.109375" style="11" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" style="11" customWidth="1"/>
+    <col min="46" max="46" width="15.140625" style="11" customWidth="1"/>
+    <col min="47" max="47" width="18.7109375" style="11" customWidth="1"/>
     <col min="48" max="48" width="18" style="11" customWidth="1"/>
     <col min="49" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>242</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>242</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>242</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>242</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>242</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>242</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>242</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>242</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>242</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>242</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>242</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>242</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>242</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>251</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>251</v>
       </c>
@@ -6207,11 +6207,14 @@
       <c r="AU18" s="11" t="s">
         <v>345</v>
       </c>
+      <c r="AV18" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="AW18" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>259</v>
       </c>
@@ -6330,7 +6333,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>259</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>264</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>269</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>275</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>275</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>275</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>282</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>288</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>294</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>299</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>306</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>312</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>312</v>
       </c>
@@ -7898,17 +7901,17 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -7974,7 +7977,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -8183,7 +8186,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -8240,7 +8243,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -8296,7 +8299,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -8488,7 +8491,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -8523,7 +8526,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -8676,22 +8679,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -8805,12 +8808,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -8920,7 +8923,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -8942,10 +8945,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8973,38 +8976,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.33203125" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -9051,7 +9054,7 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -9269,7 +9272,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -9323,7 +9326,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -9553,7 +9556,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -9614,7 +9617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -9719,7 +9722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -9826,7 +9829,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -9837,7 +9840,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -9853,12 +9856,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -9878,6 +9881,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9991,32 +10009,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -10031,16 +10033,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68C7E7-7185-4682-A7A8-5B54FA99D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D6C9C-2292-4C5A-9818-61026ACDB2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$34</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="390">
   <si>
     <t>SearchID</t>
   </si>
@@ -3551,10 +3551,6 @@
     <t>size based indiators</t>
   </si>
   <si>
-    <t>the
-power of the trawl survey to detect trends is generally poor.</t>
-  </si>
-  <si>
     <t>Fishing pressure as desired catch</t>
   </si>
   <si>
@@ -3588,6 +3584,9 @@
   </si>
   <si>
     <t>Discards generated</t>
+  </si>
+  <si>
+    <t>the power of the trawl survey to detect trends is generally poor.</t>
   </si>
 </sst>
 </file>
@@ -4067,44 +4066,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX32"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AQ12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW33" sqref="AW33"/>
+      <selection pane="bottomRight" activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="13" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="11" customWidth="1"/>
+    <col min="6" max="12" width="13" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6328125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6" style="11" customWidth="1"/>
+    <col min="15" max="15" width="3.54296875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" style="11" customWidth="1"/>
     <col min="18" max="18" width="13" style="11"/>
-    <col min="19" max="19" width="18.140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" style="11" customWidth="1"/>
     <col min="20" max="23" width="13" style="11"/>
-    <col min="24" max="25" width="32.7109375" style="11" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" style="11" customWidth="1"/>
     <col min="26" max="33" width="13" style="11"/>
-    <col min="34" max="35" width="17.7109375" style="11" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" style="11" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" style="11" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" style="11" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" style="11" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" style="11" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="11" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" style="11" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" style="11" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" style="11" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" style="11" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" style="11" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" style="11" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" style="11" customWidth="1"/>
     <col min="43" max="45" width="13" style="11"/>
-    <col min="46" max="46" width="15.140625" style="11" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="11" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" style="11" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" style="11" customWidth="1"/>
     <col min="48" max="48" width="18" style="11" customWidth="1"/>
     <col min="49" max="16384" width="13" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -4170,7 +4172,7 @@
       <c r="AW1" s="14"/>
       <c r="AX1" s="14"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>242</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>159</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -4429,7 +4431,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>242</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>242</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>242</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>242</v>
       </c>
@@ -4893,7 +4895,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>242</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>242</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>242</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>242</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>242</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>242</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>242</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>242</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>242</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>251</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>251</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>259</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>259</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>264</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>269</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -6699,7 +6701,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>275</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>275</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>275</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>282</v>
       </c>
@@ -7172,42 +7174,42 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E27" s="11">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G27" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H27" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="11">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="J27" s="11">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>249</v>
@@ -7215,52 +7217,118 @@
       <c r="O27" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="P27" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="Q27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>84</v>
+      <c r="S27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>3</v>
       </c>
       <c r="AF27" s="11">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AG27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL27" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO27" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT27" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU27" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV27" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW27" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX27" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E28" s="11">
         <v>2004</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G28" s="11">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H28" s="11">
         <v>1</v>
       </c>
       <c r="I28" s="11">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J28" s="11">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>249</v>
@@ -7271,159 +7339,165 @@
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>3</v>
+      <c r="R28" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF28" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH28" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO28" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AV28" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW28" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX28" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E29" s="11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="G29" s="11">
-        <v>503</v>
+        <v>61</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1</v>
       </c>
       <c r="I29" s="11">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J29" s="11">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>249</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="11" t="s">
-        <v>84</v>
+      <c r="S29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>3</v>
       </c>
       <c r="AF29" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL29" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM29" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO29" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU29" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW29" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX29" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E30" s="11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G30" s="11">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="J30" s="11">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>249</v>
@@ -7431,47 +7505,44 @@
       <c r="O30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="W30" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X30" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AA30" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="11">
         <v>3</v>
       </c>
       <c r="AC30" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="11" t="s">
-        <v>321</v>
+        <v>3</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AG30" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH30" s="11" t="s">
         <v>117</v>
@@ -7483,197 +7554,113 @@
         <v>232</v>
       </c>
       <c r="AN30" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO30" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AQ30" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="AT30" s="11" t="s">
         <v>372</v>
       </c>
       <c r="AU30" s="11" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AV30" s="11" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="AW30" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AX30" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E31" s="11">
         <v>2003</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G31" s="11">
+        <v>503</v>
+      </c>
+      <c r="I31" s="11">
+        <v>59</v>
+      </c>
+      <c r="J31" s="11">
         <v>67</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="I31" s="11">
-        <v>33</v>
-      </c>
-      <c r="J31" s="11">
-        <v>45</v>
-      </c>
       <c r="K31" s="11" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>249</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA31" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="11">
-        <v>3</v>
+      <c r="R31" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF31" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL31" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM31" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP31" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR31" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU31" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV31" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW31" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX31" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E32" s="11">
         <v>2003</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G32" s="11">
-        <v>67</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="I32" s="11">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="J32" s="11">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>249</v>
@@ -7682,85 +7669,335 @@
         <v>250</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W32" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X32" s="11" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z32" s="11" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AA32" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="11">
         <v>3</v>
       </c>
-      <c r="AB32" s="11">
-        <v>1</v>
-      </c>
       <c r="AC32" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="AG32" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH32" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AL32" s="11" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AM32" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN32" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO32" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP32" s="11" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AQ32" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR32" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU32" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW32" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX32" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" s="11">
+        <v>67</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33" s="11">
+        <v>33</v>
+      </c>
+      <c r="J33" s="11">
+        <v>45</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF33" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK33" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM33" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO33" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ33" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AS32" s="11" t="s">
+      <c r="AS33" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AU32" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="AV32" s="11" t="s">
+      <c r="AU33" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV33" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW32" s="11" t="s">
+      <c r="AW33" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX33" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" s="11">
+        <v>67</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I34" s="11">
+        <v>33</v>
+      </c>
+      <c r="J34" s="11">
+        <v>45</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z34" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL34" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP34" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ34" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR34" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU34" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AV34" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW34" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX32" s="11" t="s">
-        <v>386</v>
+      <c r="AX34" s="11" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7795,7 +8032,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Brown.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF3:AF32</xm:sqref>
+          <xm:sqref>AF3:AF34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -7901,17 +8138,17 @@
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -7977,7 +8214,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -8129,7 +8366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -8186,7 +8423,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -8243,7 +8480,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -8299,7 +8536,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -8344,7 +8581,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -8386,7 +8623,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -8424,7 +8661,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -8459,7 +8696,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -8491,7 +8728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -8526,7 +8763,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -8558,7 +8795,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -8593,7 +8830,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -8622,7 +8859,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -8651,7 +8888,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -8671,7 +8908,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -8679,22 +8916,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -8729,7 +8966,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -8755,7 +8992,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -8778,7 +9015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -8789,7 +9026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -8800,7 +9037,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -8808,12 +9045,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -8836,7 +9073,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -8862,7 +9099,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -8888,7 +9125,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -8908,7 +9145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -8923,7 +9160,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -8937,7 +9174,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -8945,10 +9182,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -8976,38 +9213,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="17.7265625" customWidth="1"/>
+    <col min="22" max="22" width="18.7265625" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.26953125" customWidth="1"/>
+    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7265625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -9054,7 +9291,7 @@
       <c r="AF1" s="14"/>
       <c r="AG1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -9155,7 +9392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -9221,7 +9458,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -9272,7 +9509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -9326,7 +9563,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9368,7 +9605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -9413,7 +9650,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -9451,7 +9688,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -9489,7 +9726,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -9524,7 +9761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -9556,7 +9793,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -9588,7 +9825,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -9617,7 +9854,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -9640,7 +9877,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -9666,7 +9903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -9683,7 +9920,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -9694,7 +9931,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -9708,7 +9945,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -9722,7 +9959,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -9733,7 +9970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -9747,7 +9984,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -9758,7 +9995,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -9769,7 +10006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -9777,7 +10014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -9785,7 +10022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -9793,7 +10030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -9807,7 +10044,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -9818,7 +10055,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -9829,7 +10066,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -9840,7 +10077,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -9848,7 +10085,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -9856,12 +10093,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -9881,12 +10118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9895,7 +10126,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -10009,22 +10240,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10032,7 +10254,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10046,4 +10268,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D6C9C-2292-4C5A-9818-61026ACDB2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6AF89A-9660-4FB2-B080-F6635101DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="388">
   <si>
     <t>SearchID</t>
   </si>
@@ -3548,9 +3548,6 @@
     <t>Time Series Analyses</t>
   </si>
   <si>
-    <t>size based indiators</t>
-  </si>
-  <si>
     <t>Fishing pressure as desired catch</t>
   </si>
   <si>
@@ -3584,9 +3581,6 @@
   </si>
   <si>
     <t>Discards generated</t>
-  </si>
-  <si>
-    <t>the power of the trawl survey to detect trends is generally poor.</t>
   </si>
 </sst>
 </file>
@@ -4066,25 +4060,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX34"/>
+  <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AQ12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV16" sqref="AV16"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="11" customWidth="1"/>
-    <col min="6" max="12" width="13" style="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" style="11" customWidth="1"/>
     <col min="13" max="13" width="4.6328125" style="11" customWidth="1"/>
     <col min="14" max="14" width="6" style="11" customWidth="1"/>
-    <col min="15" max="15" width="3.54296875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" style="11" customWidth="1"/>
     <col min="16" max="16" width="12.453125" style="11" customWidth="1"/>
     <col min="17" max="17" width="18.7265625" style="11" customWidth="1"/>
     <col min="18" max="18" width="13" style="11"/>
@@ -4413,7 +4413,7 @@
         <v>159</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -6677,7 +6677,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7295,40 +7295,40 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E28" s="11">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G28" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H28" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="11">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="J28" s="11">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>249</v>
@@ -7336,52 +7336,118 @@
       <c r="O28" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="P28" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="Q28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>84</v>
+      <c r="S28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z28" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>3</v>
       </c>
       <c r="AF28" s="11">
         <v>4.4000000000000004</v>
       </c>
+      <c r="AG28" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL28" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM28" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN28" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO28" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ28" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU28" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV28" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW28" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX28" s="11" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E29" s="11">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>278</v>
       </c>
       <c r="G29" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H29" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" s="11">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="J29" s="11">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>249</v>
@@ -7389,6 +7455,9 @@
       <c r="O29" s="11" t="s">
         <v>250</v>
       </c>
+      <c r="P29" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="Q29" s="11" t="s">
         <v>21</v>
       </c>
@@ -7438,7 +7507,7 @@
         <v>232</v>
       </c>
       <c r="AN29" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO29" s="11" t="s">
         <v>373</v>
@@ -7450,54 +7519,54 @@
         <v>372</v>
       </c>
       <c r="AU29" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AV29" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AW29" s="11" t="s">
         <v>209</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E30" s="11">
         <v>2004</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="G30" s="11">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H30" s="11">
         <v>1</v>
       </c>
       <c r="I30" s="11">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="J30" s="11">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>249</v>
@@ -7508,115 +7577,55 @@
       <c r="Q30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>3</v>
+      <c r="R30" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF30" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH30" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL30" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM30" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO30" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AQ30" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT30" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU30" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="AV30" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW30" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" s="11" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E31" s="11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="G31" s="11">
-        <v>503</v>
+        <v>61</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1</v>
       </c>
       <c r="I31" s="11">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J31" s="11">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>249</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>21</v>
@@ -7625,42 +7634,45 @@
         <v>84</v>
       </c>
       <c r="AF31" s="11">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E32" s="11">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G32" s="11">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
       </c>
       <c r="I32" s="11">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="J32" s="11">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>249</v>
@@ -7668,249 +7680,99 @@
       <c r="O32" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="Q32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V32" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z32" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA32" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF32" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG32" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH32" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL32" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM32" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN32" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO32" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ32" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR32" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT32" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU32" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AV32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW32" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX32" s="11" t="s">
-        <v>379</v>
+      <c r="R32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF32" s="11">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E33" s="11">
         <v>2003</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G33" s="11">
+        <v>503</v>
+      </c>
+      <c r="I33" s="11">
+        <v>59</v>
+      </c>
+      <c r="J33" s="11">
         <v>67</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="I33" s="11">
-        <v>33</v>
-      </c>
-      <c r="J33" s="11">
-        <v>45</v>
-      </c>
       <c r="K33" s="11" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>249</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA33" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="11">
-        <v>3</v>
+      <c r="R33" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF33" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG33" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH33" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL33" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM33" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP33" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ33" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR33" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU33" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV33" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW33" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX33" s="11" t="s">
-        <v>385</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E34" s="11">
         <v>2003</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G34" s="11">
-        <v>67</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="I34" s="11">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="J34" s="11">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>249</v>
@@ -7919,85 +7781,335 @@
         <v>250</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>21</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V34" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W34" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X34" s="11" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AA34" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="11">
         <v>3</v>
       </c>
-      <c r="AB34" s="11">
-        <v>1</v>
-      </c>
       <c r="AC34" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF34" s="11">
-        <v>4.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="AF34" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="AG34" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH34" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK34" s="11" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="AM34" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP34" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AR34" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT34" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AU34" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV34" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW34" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX34" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="11">
+        <v>67</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I35" s="11">
+        <v>33</v>
+      </c>
+      <c r="J35" s="11">
+        <v>45</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH35" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK35" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM35" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO35" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP35" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR35" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="AS34" s="11" t="s">
+      <c r="AS35" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AU34" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV34" s="11" t="s">
+      <c r="AU35" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV35" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="AW34" s="11" t="s">
+      <c r="AW35" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX35" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" s="11">
+        <v>2003</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="11">
+        <v>67</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="11">
+        <v>33</v>
+      </c>
+      <c r="J36" s="11">
+        <v>45</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z36" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF36" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK36" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL36" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AM36" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO36" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP36" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ36" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR36" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS36" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AV36" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW36" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AX34" s="11" t="s">
-        <v>385</v>
+      <c r="AX36" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8032,7 +8144,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Brown.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF3:AF34</xm:sqref>
+          <xm:sqref>AF3:AF36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -10118,12 +10230,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10241,15 +10350,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10271,16 +10390,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6AF89A-9660-4FB2-B080-F6635101DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97006AA-E4E8-4D2B-A05E-810449C271B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$35</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="381">
   <si>
     <t>SearchID</t>
   </si>
@@ -3552,29 +3552,6 @@
   </si>
   <si>
     <t>results obtained seem to indicate a reasonable compromise between efficiency of resource ustilisation and impact on th edemersal communities</t>
-  </si>
-  <si>
-    <t>Multivariate Analyses</t>
-  </si>
-  <si>
-    <t>Benthic community</t>
-  </si>
-  <si>
-    <t>Period of fishing exposure</t>
-  </si>
-  <si>
-    <t>Location and environment</t>
-  </si>
-  <si>
-    <t>Mobile scavenger abundance</t>
-  </si>
-  <si>
-    <t>Mobile, robust and scavenging taxa have increased
-in abundance, while slow-moving or sessile, fragile taxa have decreased. Differences between historical and modern samples
-were greater than could be accounted for by the natural variability of the system</t>
-  </si>
-  <si>
-    <t>Sessile fragile benthos abundance</t>
   </si>
   <si>
     <t>Discarding _ Escapement</t>
@@ -4060,13 +4037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX36"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4413,7 +4390,7 @@
         <v>159</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -6677,7 +6654,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -7911,205 +7888,11 @@
       <c r="Q35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA35" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>3</v>
+      <c r="R35" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="AF35" s="11">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="AG35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH35" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL35" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AM35" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO35" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AP35" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ35" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR35" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS35" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU35" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AV35" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX35" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E36" s="11">
-        <v>2003</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="11">
-        <v>67</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="I36" s="11">
-        <v>33</v>
-      </c>
-      <c r="J36" s="11">
-        <v>45</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V36" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X36" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA36" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH36" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK36" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL36" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AM36" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO36" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AP36" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ36" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR36" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS36" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU36" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX36" s="11" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +7913,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8144,7 +7927,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Brown.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF3:AF36</xm:sqref>
+          <xm:sqref>AF3:AF35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -10230,14 +10013,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -10350,31 +10136,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83DE34BC-A88C-4C44-AD60-AE535EA0BC24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -10390,9 +10166,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97006AA-E4E8-4D2B-A05E-810449C271B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653FF26-5614-49D8-A48A-1610D334ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4043,7 +4043,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7889,7 +7889,7 @@
         <v>21</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF35" s="11">
         <v>4.4000000000000004</v>
@@ -10013,12 +10013,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10136,15 +10133,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10166,16 +10173,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E653FF26-5614-49D8-A48A-1610D334ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54F7B-1174-4AF4-B289-B35A9C413212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="381">
   <si>
     <t>SearchID</t>
   </si>
@@ -3488,11 +3488,6 @@
   </si>
   <si>
     <t>ANOVA</t>
-  </si>
-  <si>
-    <t>interaction of sea turtles with the
-static net fishery is very important and comparable to
-other fisherie</t>
   </si>
   <si>
     <t>Nephrops norvegicus</t>
@@ -3558,6 +3553,9 @@
   </si>
   <si>
     <t>Discards generated</t>
+  </si>
+  <si>
+    <t>interaction of sea turtles with the static net fishery is very important and comparable to other fisheries</t>
   </si>
 </sst>
 </file>
@@ -4043,7 +4041,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="AW46" sqref="AW46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4390,7 +4388,7 @@
         <v>159</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AQ3" s="11" t="s">
         <v>164</v>
@@ -6535,7 +6533,10 @@
         <v>358</v>
       </c>
       <c r="AQ21" s="11" t="s">
-        <v>150</v>
+        <v>164</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="AT21" s="11" t="s">
         <v>359</v>
@@ -6550,7 +6551,7 @@
         <v>209</v>
       </c>
       <c r="AX21" s="11" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -6645,7 +6646,7 @@
         <v>113</v>
       </c>
       <c r="AL22" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AM22" s="11" t="s">
         <v>232</v>
@@ -6654,7 +6655,7 @@
         <v>160</v>
       </c>
       <c r="AO22" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>164</v>
@@ -6666,7 +6667,7 @@
         <v>175</v>
       </c>
       <c r="AU22" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AV22" s="11" t="s">
         <v>213</v>
@@ -6675,7 +6676,7 @@
         <v>208</v>
       </c>
       <c r="AX22" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -6746,10 +6747,10 @@
         <v>113</v>
       </c>
       <c r="Y23" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z23" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="AA23" s="11">
         <v>3</v>
@@ -6788,13 +6789,13 @@
         <v>196</v>
       </c>
       <c r="AU23" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>113</v>
       </c>
       <c r="AX23" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -6865,10 +6866,10 @@
         <v>113</v>
       </c>
       <c r="Y24" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z24" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="AA24" s="11">
         <v>3</v>
@@ -6904,13 +6905,13 @@
         <v>173</v>
       </c>
       <c r="AU24" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AV24" s="11" t="s">
         <v>113</v>
       </c>
       <c r="AX24" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
@@ -6981,10 +6982,10 @@
         <v>113</v>
       </c>
       <c r="Y25" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z25" s="11" t="s">
         <v>366</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>367</v>
       </c>
       <c r="AA25" s="11">
         <v>3</v>
@@ -7020,16 +7021,16 @@
         <v>113</v>
       </c>
       <c r="AT25" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU25" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="AV25" s="11" t="s">
         <v>113</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -7100,7 +7101,7 @@
         <v>215</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA26" s="11">
         <v>3</v>
@@ -7121,7 +7122,7 @@
         <v>117</v>
       </c>
       <c r="AL26" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM26" s="11" t="s">
         <v>232</v>
@@ -7130,16 +7131,16 @@
         <v>160</v>
       </c>
       <c r="AO26" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ26" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AT26" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU26" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AV26" s="11" t="s">
         <v>206</v>
@@ -7148,7 +7149,7 @@
         <v>209</v>
       </c>
       <c r="AX26" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
@@ -7219,7 +7220,7 @@
         <v>215</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA27" s="11">
         <v>3</v>
@@ -7240,7 +7241,7 @@
         <v>117</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>232</v>
@@ -7249,16 +7250,16 @@
         <v>160</v>
       </c>
       <c r="AO27" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ27" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AT27" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU27" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AV27" s="11" t="s">
         <v>200</v>
@@ -7267,7 +7268,7 @@
         <v>209</v>
       </c>
       <c r="AX27" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
@@ -7338,7 +7339,7 @@
         <v>215</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA28" s="11">
         <v>3</v>
@@ -7359,7 +7360,7 @@
         <v>117</v>
       </c>
       <c r="AL28" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM28" s="11" t="s">
         <v>232</v>
@@ -7368,16 +7369,16 @@
         <v>161</v>
       </c>
       <c r="AO28" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ28" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AT28" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU28" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AV28" s="11" t="s">
         <v>206</v>
@@ -7386,7 +7387,7 @@
         <v>209</v>
       </c>
       <c r="AX28" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.35">
@@ -7457,7 +7458,7 @@
         <v>215</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AA29" s="11">
         <v>3</v>
@@ -7478,7 +7479,7 @@
         <v>117</v>
       </c>
       <c r="AL29" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>232</v>
@@ -7487,16 +7488,16 @@
         <v>161</v>
       </c>
       <c r="AO29" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ29" s="11" t="s">
         <v>164</v>
       </c>
       <c r="AT29" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU29" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AV29" s="11" t="s">
         <v>200</v>
@@ -7505,7 +7506,7 @@
         <v>209</v>
       </c>
       <c r="AX29" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
@@ -7782,7 +7783,7 @@
         <v>216</v>
       </c>
       <c r="Z34" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AA34" s="11">
         <v>2</v>
@@ -7803,7 +7804,7 @@
         <v>117</v>
       </c>
       <c r="AL34" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM34" s="11" t="s">
         <v>232</v>
@@ -7812,7 +7813,7 @@
         <v>161</v>
       </c>
       <c r="AO34" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>164</v>
@@ -7824,10 +7825,10 @@
         <v>175</v>
       </c>
       <c r="AT34" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AU34" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AV34" s="11" t="s">
         <v>113</v>
@@ -7836,7 +7837,7 @@
         <v>209</v>
       </c>
       <c r="AX34" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -10013,9 +10014,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10133,25 +10137,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10173,9 +10167,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D54F7B-1174-4AF4-B289-B35A9C413212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2EC83-DDFE-4DA9-AF0D-0046C2EBB145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$33</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2391,7 +2391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="380">
   <si>
     <t>SearchID</t>
   </si>
@@ -3505,22 +3505,10 @@
 to grow and reproduce.</t>
   </si>
   <si>
-    <t>Phone survey / questionnaire</t>
-  </si>
-  <si>
     <t>Descriptive statistics</t>
   </si>
   <si>
-    <t>unclassified other</t>
-  </si>
-  <si>
     <t>Catches</t>
-  </si>
-  <si>
-    <t>recreational fishing is one of the main leisure
-activities and is undoubtedly important to the coastal
-marine ecosystem as well as being socio-economically
-important</t>
   </si>
   <si>
     <t>Full fish community</t>
@@ -3556,6 +3544,12 @@
   </si>
   <si>
     <t>interaction of sea turtles with the static net fishery is very important and comparable to other fisheries</t>
+  </si>
+  <si>
+    <t>Trawling</t>
+  </si>
+  <si>
+    <t>Before and after trawling</t>
   </si>
 </sst>
 </file>
@@ -3694,7 +3688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3708,14 +3702,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4035,117 +4027,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AW46" sqref="AW46"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.08984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.7265625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="7.90625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="6" style="11" customWidth="1"/>
-    <col min="15" max="15" width="6.7265625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.7265625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="13" style="11"/>
-    <col min="19" max="19" width="18.1796875" style="11" customWidth="1"/>
-    <col min="20" max="23" width="13" style="11"/>
-    <col min="24" max="25" width="32.7265625" style="11" customWidth="1"/>
-    <col min="26" max="33" width="13" style="11"/>
-    <col min="34" max="35" width="17.7265625" style="11" customWidth="1"/>
-    <col min="36" max="36" width="18.7265625" style="11" customWidth="1"/>
-    <col min="37" max="37" width="19.1796875" style="11" customWidth="1"/>
-    <col min="38" max="38" width="17.7265625" style="11" customWidth="1"/>
-    <col min="39" max="39" width="14.26953125" style="11" customWidth="1"/>
-    <col min="40" max="41" width="15.81640625" style="11" customWidth="1"/>
-    <col min="42" max="42" width="15.453125" style="11" customWidth="1"/>
-    <col min="43" max="45" width="13" style="11"/>
-    <col min="46" max="46" width="15.1796875" style="11" customWidth="1"/>
-    <col min="47" max="47" width="18.7265625" style="11" customWidth="1"/>
-    <col min="48" max="48" width="18" style="11" customWidth="1"/>
-    <col min="49" max="16384" width="13" style="11"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.08984375" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
+    <col min="12" max="12" width="7.90625" customWidth="1"/>
+    <col min="13" max="13" width="4.6328125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="6.7265625" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" customWidth="1"/>
+    <col min="24" max="25" width="32.7265625" customWidth="1"/>
+    <col min="34" max="35" width="17.7265625" customWidth="1"/>
+    <col min="36" max="36" width="18.7265625" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" customWidth="1"/>
+    <col min="38" max="38" width="17.7265625" customWidth="1"/>
+    <col min="39" max="39" width="14.26953125" customWidth="1"/>
+    <col min="40" max="41" width="15.81640625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" customWidth="1"/>
+    <col min="47" max="47" width="18.7265625" customWidth="1"/>
+    <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="19" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="14" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4300,3599 +4287,3313 @@
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>2006</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>59</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="10">
         <v>44593</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3">
         <v>63</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3">
         <v>96</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" t="s">
         <v>247</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" t="s">
         <v>248</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" t="s">
         <v>249</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" t="s">
         <v>250</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" t="s">
         <v>322</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AC3" s="11">
+      <c r="AC3">
         <v>2</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AH3" t="s">
         <v>116</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" t="s">
         <v>159</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AO3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4">
+        <v>2006</v>
+      </c>
+      <c r="F4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4">
+        <v>59</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I4">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5">
+        <v>2006</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I5">
+        <v>63</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" t="s">
+        <v>249</v>
+      </c>
+      <c r="O5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6">
+        <v>2006</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6">
+        <v>59</v>
+      </c>
+      <c r="H6" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>96</v>
+      </c>
+      <c r="K6" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N6" t="s">
+        <v>249</v>
+      </c>
+      <c r="O6" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7">
+        <v>2006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7">
+        <v>59</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I8">
+        <v>63</v>
+      </c>
+      <c r="J8">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M8" t="s">
+        <v>248</v>
+      </c>
+      <c r="N8" t="s">
+        <v>249</v>
+      </c>
+      <c r="O8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9">
+        <v>2006</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9">
+        <v>59</v>
+      </c>
+      <c r="H9" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I9">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10">
+        <v>2006</v>
+      </c>
+      <c r="F10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10">
+        <v>59</v>
+      </c>
+      <c r="H10" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I10">
+        <v>63</v>
+      </c>
+      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" t="s">
+        <v>248</v>
+      </c>
+      <c r="N10" t="s">
+        <v>249</v>
+      </c>
+      <c r="O10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11">
+        <v>2006</v>
+      </c>
+      <c r="F11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11">
+        <v>59</v>
+      </c>
+      <c r="H11" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I11">
+        <v>63</v>
+      </c>
+      <c r="J11">
+        <v>96</v>
+      </c>
+      <c r="K11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" t="s">
+        <v>248</v>
+      </c>
+      <c r="N11" t="s">
+        <v>249</v>
+      </c>
+      <c r="O11" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12">
+        <v>2006</v>
+      </c>
+      <c r="F12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12">
+        <v>59</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I12">
+        <v>63</v>
+      </c>
+      <c r="J12">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" t="s">
+        <v>249</v>
+      </c>
+      <c r="O12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13">
+        <v>2006</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13">
+        <v>59</v>
+      </c>
+      <c r="H13" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I13">
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" t="s">
+        <v>249</v>
+      </c>
+      <c r="O13" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>55</v>
+      </c>
+      <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14">
+        <v>2006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I14">
+        <v>63</v>
+      </c>
+      <c r="J14">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" t="s">
+        <v>248</v>
+      </c>
+      <c r="N14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O14" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
+      <c r="X14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15">
+        <v>2006</v>
+      </c>
+      <c r="F15" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15">
+        <v>59</v>
+      </c>
+      <c r="H15" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I15">
+        <v>63</v>
+      </c>
+      <c r="J15">
+        <v>96</v>
+      </c>
+      <c r="K15" t="s">
+        <v>247</v>
+      </c>
+      <c r="M15" t="s">
+        <v>248</v>
+      </c>
+      <c r="N15" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
+      <c r="X15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16">
+        <v>2006</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16">
+        <v>59</v>
+      </c>
+      <c r="H16" s="10">
+        <v>44593</v>
+      </c>
+      <c r="I16">
+        <v>63</v>
+      </c>
+      <c r="J16">
+        <v>96</v>
+      </c>
+      <c r="K16" t="s">
+        <v>247</v>
+      </c>
+      <c r="M16" t="s">
+        <v>248</v>
+      </c>
+      <c r="N16" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>2</v>
+      </c>
+      <c r="AF16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17">
+        <v>2005</v>
+      </c>
+      <c r="F17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>255</v>
+      </c>
+      <c r="I17">
+        <v>2387</v>
+      </c>
+      <c r="J17">
+        <v>2409</v>
+      </c>
+      <c r="K17" t="s">
+        <v>256</v>
+      </c>
+      <c r="M17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N17" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" t="s">
+        <v>214</v>
+      </c>
+      <c r="X17" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18">
+        <v>2005</v>
+      </c>
+      <c r="F18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18">
+        <v>2387</v>
+      </c>
+      <c r="J18">
+        <v>2409</v>
+      </c>
+      <c r="K18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" t="s">
+        <v>249</v>
+      </c>
+      <c r="O18" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18" t="s">
+        <v>214</v>
+      </c>
+      <c r="X18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>3</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19">
+        <v>2005</v>
+      </c>
+      <c r="F19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19">
+        <v>2554</v>
+      </c>
+      <c r="J19">
+        <v>2569</v>
+      </c>
+      <c r="K19" t="s">
+        <v>262</v>
+      </c>
+      <c r="M19" t="s">
+        <v>263</v>
+      </c>
+      <c r="N19" t="s">
+        <v>249</v>
+      </c>
+      <c r="O19" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>4.3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO19" t="s">
         <v>379</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AP19" t="s">
+        <v>352</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>164</v>
       </c>
-      <c r="AU3" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AR19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20">
+        <v>2005</v>
+      </c>
+      <c r="F20" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20">
+        <v>2554</v>
+      </c>
+      <c r="J20">
+        <v>2569</v>
+      </c>
+      <c r="K20" t="s">
+        <v>262</v>
+      </c>
+      <c r="M20" t="s">
+        <v>263</v>
+      </c>
+      <c r="N20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>4.3</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>379</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>355</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>353</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21">
+        <v>2005</v>
+      </c>
+      <c r="F21" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>201</v>
+      </c>
+      <c r="J21">
         <v>203</v>
       </c>
-      <c r="AW3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX3" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="M21" t="s">
+        <v>268</v>
+      </c>
+      <c r="N21" t="s">
+        <v>249</v>
+      </c>
+      <c r="O21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>359</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" t="s">
         <v>243</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="C22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22">
+        <v>2005</v>
+      </c>
+      <c r="F22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22">
+        <v>320</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>179</v>
+      </c>
+      <c r="J22">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>273</v>
+      </c>
+      <c r="M22" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O22" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23">
+        <v>2005</v>
+      </c>
+      <c r="F23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23">
+        <v>62</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>727</v>
+      </c>
+      <c r="J23">
+        <v>739</v>
+      </c>
+      <c r="K23" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" t="s">
+        <v>280</v>
+      </c>
+      <c r="N23" t="s">
+        <v>249</v>
+      </c>
+      <c r="O23" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF23">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24">
+        <v>2005</v>
+      </c>
+      <c r="F24" t="s">
+        <v>278</v>
+      </c>
+      <c r="G24">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>177</v>
+      </c>
+      <c r="J24">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" t="s">
+        <v>286</v>
+      </c>
+      <c r="N24" t="s">
+        <v>249</v>
+      </c>
+      <c r="O24" t="s">
+        <v>250</v>
+      </c>
+      <c r="P24" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I4" s="11">
-        <v>63</v>
-      </c>
-      <c r="J4" s="11">
-        <v>96</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="11" t="s">
+      <c r="V24" t="s">
+        <v>41</v>
+      </c>
+      <c r="W24" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>3</v>
+      </c>
+      <c r="AF24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25">
+        <v>2005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25">
+        <v>62</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>177</v>
+      </c>
+      <c r="J25">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" t="s">
+        <v>286</v>
+      </c>
+      <c r="N25" t="s">
         <v>249</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O25" t="s">
         <v>250</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="P25" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26">
+        <v>2005</v>
+      </c>
+      <c r="F26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26">
+        <v>62</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>177</v>
+      </c>
+      <c r="J26">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s">
+        <v>285</v>
+      </c>
+      <c r="M26" t="s">
+        <v>286</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>250</v>
+      </c>
+      <c r="P26" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AC26">
+        <v>3</v>
+      </c>
+      <c r="AF26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27">
+        <v>2005</v>
+      </c>
+      <c r="F27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G27">
+        <v>62</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>177</v>
+      </c>
+      <c r="J27">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s">
+        <v>286</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>250</v>
+      </c>
+      <c r="P27" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA27">
+        <v>3</v>
+      </c>
+      <c r="AB27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+      <c r="AF27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28">
+        <v>2004</v>
+      </c>
+      <c r="F28" t="s">
+        <v>291</v>
+      </c>
+      <c r="G28">
+        <v>51</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>69</v>
+      </c>
+      <c r="J28">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s">
+        <v>292</v>
+      </c>
+      <c r="M28" t="s">
+        <v>293</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF28">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E29">
+        <v>2004</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29">
+        <v>61</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>35</v>
+      </c>
+      <c r="J29">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>297</v>
+      </c>
+      <c r="M29" t="s">
+        <v>298</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF29">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E30">
+        <v>2004</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30">
+        <v>61</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>35</v>
+      </c>
+      <c r="J30">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>297</v>
+      </c>
+      <c r="M30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF30">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31">
+        <v>2003</v>
+      </c>
+      <c r="F31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31">
+        <v>503</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>67</v>
+      </c>
+      <c r="K31" t="s">
+        <v>303</v>
+      </c>
+      <c r="M31" t="s">
+        <v>304</v>
+      </c>
+      <c r="N31" t="s">
+        <v>249</v>
+      </c>
+      <c r="O31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32">
+        <v>2003</v>
+      </c>
+      <c r="F32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32">
         <v>31</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="I32">
+        <v>275</v>
+      </c>
+      <c r="J32">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="s">
+        <v>311</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s">
+        <v>57</v>
+      </c>
+      <c r="V32" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s">
+        <v>53</v>
+      </c>
+      <c r="X32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" t="s">
+        <v>314</v>
+      </c>
+      <c r="E33">
+        <v>2003</v>
+      </c>
+      <c r="F33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>316</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="J33">
         <v>45</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX4" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="11">
-        <v>59</v>
-      </c>
-      <c r="H5" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I5" s="11">
-        <v>63</v>
-      </c>
-      <c r="J5" s="11">
-        <v>96</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N5" s="11" t="s">
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="s">
+        <v>318</v>
+      </c>
+      <c r="N33" t="s">
         <v>249</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O33" t="s">
         <v>250</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="P33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q33" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN5" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO5" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ5" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV5" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G6" s="11">
-        <v>59</v>
-      </c>
-      <c r="H6" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I6" s="11">
-        <v>63</v>
-      </c>
-      <c r="J6" s="11">
-        <v>96</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN6" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="11">
-        <v>59</v>
-      </c>
-      <c r="H7" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I7" s="11">
-        <v>63</v>
-      </c>
-      <c r="J7" s="11">
-        <v>96</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL7" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM7" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN7" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO7" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ7" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU7" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV7" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW7" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX7" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G8" s="11">
-        <v>59</v>
-      </c>
-      <c r="H8" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I8" s="11">
-        <v>63</v>
-      </c>
-      <c r="J8" s="11">
-        <v>96</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI8" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="AM8" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN8" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO8" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ8" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU8" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV8" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW8" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX8" s="11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="11">
-        <v>59</v>
-      </c>
-      <c r="H9" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I9" s="11">
-        <v>63</v>
-      </c>
-      <c r="J9" s="11">
-        <v>96</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="AM9" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO9" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV9" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW9" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="11">
-        <v>59</v>
-      </c>
-      <c r="H10" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I10" s="11">
-        <v>63</v>
-      </c>
-      <c r="J10" s="11">
-        <v>96</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI10" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU10" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV10" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW10" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX10" s="11" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="11">
-        <v>59</v>
-      </c>
-      <c r="H11" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I11" s="11">
-        <v>63</v>
-      </c>
-      <c r="J11" s="11">
-        <v>96</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM11" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN11" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO11" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="11">
-        <v>59</v>
-      </c>
-      <c r="H12" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I12" s="11">
-        <v>63</v>
-      </c>
-      <c r="J12" s="11">
-        <v>96</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL12" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM12" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN12" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO12" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ12" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR12" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT12" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AU12" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV12" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW12" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX12" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="11">
-        <v>59</v>
-      </c>
-      <c r="H13" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I13" s="11">
-        <v>63</v>
-      </c>
-      <c r="J13" s="11">
-        <v>96</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI13" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN13" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT13" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AU13" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV13" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW13" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX13" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="11">
-        <v>59</v>
-      </c>
-      <c r="H14" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I14" s="11">
-        <v>63</v>
-      </c>
-      <c r="J14" s="11">
-        <v>96</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z14" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC14" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH14" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI14" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ14" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL14" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM14" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN14" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO14" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ14" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR14" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT14" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU14" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV14" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="11">
-        <v>59</v>
-      </c>
-      <c r="H15" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I15" s="11">
-        <v>63</v>
-      </c>
-      <c r="J15" s="11">
-        <v>96</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM15" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN15" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO15" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT15" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV15" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW15" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX15" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2006</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="11">
-        <v>59</v>
-      </c>
-      <c r="H16" s="12">
-        <v>44593</v>
-      </c>
-      <c r="I16" s="11">
-        <v>63</v>
-      </c>
-      <c r="J16" s="11">
-        <v>96</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z16" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI16" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL16" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM16" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ16" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR16" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT16" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU16" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AV16" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW16" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX16" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="11">
-        <v>25</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I17" s="11">
-        <v>2387</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2409</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG17" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX17" s="11" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="11">
-        <v>25</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I18" s="11">
-        <v>2387</v>
-      </c>
-      <c r="J18" s="11">
-        <v>2409</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z18" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA18" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC18" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF18" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR18" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU18" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW18" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="11">
-        <v>25</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I19" s="11">
-        <v>2554</v>
-      </c>
-      <c r="J19" s="11">
-        <v>2569</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM19" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="11">
-        <v>25</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I20" s="11">
-        <v>2554</v>
-      </c>
-      <c r="J20" s="11">
-        <v>2569</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z20" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="AG20" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP20" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR20" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="AV20" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX20" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="E21" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G21" s="11">
-        <v>15</v>
-      </c>
-      <c r="H21" s="11">
-        <v>3</v>
-      </c>
-      <c r="I21" s="11">
-        <v>201</v>
-      </c>
-      <c r="J21" s="11">
-        <v>203</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>4.2</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL21" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="AM21" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN21" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO21" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ21" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR21" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT21" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="AV21" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW21" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX21" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="11">
-        <v>320</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2</v>
-      </c>
-      <c r="I22" s="11">
-        <v>179</v>
-      </c>
-      <c r="J22" s="11">
-        <v>193</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z22" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA22" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI22" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL22" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="AM22" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN22" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO22" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ22" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR22" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS22" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU22" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="AV22" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX22" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="11">
-        <v>62</v>
-      </c>
-      <c r="H23" s="11">
-        <v>4</v>
-      </c>
-      <c r="I23" s="11">
-        <v>727</v>
-      </c>
-      <c r="J23" s="11">
-        <v>739</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF23" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM23" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN23" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ23" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR23" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX23" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G24" s="11">
-        <v>62</v>
-      </c>
-      <c r="H24" s="11">
-        <v>4</v>
-      </c>
-      <c r="I24" s="11">
-        <v>727</v>
-      </c>
-      <c r="J24" s="11">
-        <v>739</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y24" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z24" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA24" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF24" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM24" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP24" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR24" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU24" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX24" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E25" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="11">
-        <v>62</v>
-      </c>
-      <c r="H25" s="11">
-        <v>4</v>
-      </c>
-      <c r="I25" s="11">
-        <v>727</v>
-      </c>
-      <c r="J25" s="11">
-        <v>739</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA25" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB25" s="11">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM25" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN25" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP25" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="AQ25" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT25" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU25" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX25" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" s="11">
-        <v>62</v>
-      </c>
-      <c r="H26" s="11">
-        <v>2</v>
-      </c>
-      <c r="I26" s="11">
-        <v>177</v>
-      </c>
-      <c r="J26" s="11">
-        <v>188</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA26" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB26" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF26" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL26" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM26" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN26" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO26" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ26" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT26" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU26" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV26" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW26" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX26" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="11">
-        <v>62</v>
-      </c>
-      <c r="H27" s="11">
-        <v>2</v>
-      </c>
-      <c r="I27" s="11">
-        <v>177</v>
-      </c>
-      <c r="J27" s="11">
-        <v>188</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA27" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB27" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC27" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF27" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH27" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL27" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM27" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN27" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO27" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT27" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU27" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV27" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW27" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX27" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="11">
-        <v>62</v>
-      </c>
-      <c r="H28" s="11">
-        <v>2</v>
-      </c>
-      <c r="I28" s="11">
-        <v>177</v>
-      </c>
-      <c r="J28" s="11">
-        <v>188</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH28" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM28" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO28" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT28" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV28" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW28" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX28" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2005</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G29" s="11">
-        <v>62</v>
-      </c>
-      <c r="H29" s="11">
-        <v>2</v>
-      </c>
-      <c r="I29" s="11">
-        <v>177</v>
-      </c>
-      <c r="J29" s="11">
-        <v>188</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="X29" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA29" s="11">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC29" s="11">
-        <v>3</v>
-      </c>
-      <c r="AF29" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL29" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM29" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO29" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2004</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" s="11">
-        <v>51</v>
-      </c>
-      <c r="H30" s="11">
-        <v>1</v>
-      </c>
-      <c r="I30" s="11">
-        <v>69</v>
-      </c>
-      <c r="J30" s="11">
-        <v>76</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E31" s="11">
-        <v>2004</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G31" s="11">
-        <v>61</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1</v>
-      </c>
-      <c r="I31" s="11">
-        <v>35</v>
-      </c>
-      <c r="J31" s="11">
-        <v>42</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF31" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2004</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="11">
-        <v>61</v>
-      </c>
-      <c r="H32" s="11">
-        <v>1</v>
-      </c>
-      <c r="I32" s="11">
-        <v>35</v>
-      </c>
-      <c r="J32" s="11">
-        <v>42</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E33" s="11">
-        <v>2003</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G33" s="11">
-        <v>503</v>
-      </c>
-      <c r="I33" s="11">
-        <v>59</v>
-      </c>
-      <c r="J33" s="11">
-        <v>67</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="E34" s="11">
-        <v>2003</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="11">
-        <v>31</v>
-      </c>
-      <c r="I34" s="11">
-        <v>275</v>
-      </c>
-      <c r="J34" s="11">
-        <v>284</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W34" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z34" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA34" s="11">
-        <v>2</v>
-      </c>
-      <c r="AB34" s="11">
-        <v>3</v>
-      </c>
-      <c r="AC34" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF34" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG34" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH34" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL34" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AM34" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN34" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO34" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AQ34" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR34" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS34" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT34" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU34" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX34" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="E35" s="11">
-        <v>2003</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G35" s="11">
-        <v>67</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="I35" s="11">
-        <v>33</v>
-      </c>
-      <c r="J35" s="11">
-        <v>45</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="11" t="s">
+      <c r="R33" t="s">
         <v>85</v>
       </c>
-      <c r="AF35" s="11">
+      <c r="AF33">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -7914,7 +7615,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AJ1048576 AN3:AN1048576 AR3:AS1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7928,7 +7629,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\kjova\Downloads\[DataExtractionForm_WP4_Brown.xlsx]Validation'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>AF3:AF35</xm:sqref>
+          <xm:sqref>AF3:AF33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
@@ -8028,7 +7729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
@@ -8045,70 +7746,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="18" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="17" t="s">
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -8430,7 +8131,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -8818,7 +8519,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9021,7 +8722,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -9041,7 +8742,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -9054,9 +8755,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
-    </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -9070,7 +8770,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -9078,10 +8778,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -9141,51 +8841,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="16" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="13" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -9708,7 +9408,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -10014,12 +9714,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10137,15 +9834,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10167,16 +9874,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Brown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2EC83-DDFE-4DA9-AF0D-0046C2EBB145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66140E1D-6142-40D9-B133-1A962920F245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3434,9 +3434,6 @@
 on its by-catch (marine turtles, dolphins and seabirds),</t>
   </si>
   <si>
-    <t>Sediment re-suspension volume _ sediment re-suspsention concentration - sediment resuspention plume extent</t>
-  </si>
-  <si>
     <t>a very small
 fraction of the sediment ploughed by the trawl is effectively injected into the water column</t>
   </si>
@@ -3534,9 +3531,6 @@
     <t>Fishing pressure as desired catch</t>
   </si>
   <si>
-    <t>results obtained seem to indicate a reasonable compromise between efficiency of resource ustilisation and impact on th edemersal communities</t>
-  </si>
-  <si>
     <t>Discarding _ Escapement</t>
   </si>
   <si>
@@ -3550,6 +3544,12 @@
   </si>
   <si>
     <t>Before and after trawling</t>
+  </si>
+  <si>
+    <t>Sediment re-suspension volume _ sediment re-suspsention concentration _ sediment resuspention plume extent</t>
+  </si>
+  <si>
+    <t>results obtained seem to indicate a reasonable compromise between efficiency of resource ustilisation and impact on the demersal communities</t>
   </si>
 </sst>
 </file>
@@ -4030,10 +4030,10 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AP32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="AX40" sqref="AX40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4375,7 +4375,7 @@
         <v>159</v>
       </c>
       <c r="AO3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -6011,7 +6011,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6041,7 +6041,7 @@
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6053,7 +6053,7 @@
         <v>175</v>
       </c>
       <c r="AU17" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="AV17" t="s">
         <v>113</v>
@@ -6062,7 +6062,7 @@
         <v>207</v>
       </c>
       <c r="AX17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.35">
@@ -6133,7 +6133,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6163,7 +6163,7 @@
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6175,7 +6175,7 @@
         <v>177</v>
       </c>
       <c r="AU18" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="AV18" t="s">
         <v>113</v>
@@ -6249,10 +6249,10 @@
         <v>72</v>
       </c>
       <c r="Y19" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z19" t="s">
         <v>348</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>349</v>
       </c>
       <c r="AA19">
         <v>2</v>
@@ -6279,16 +6279,16 @@
         <v>134</v>
       </c>
       <c r="AL19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AM19" t="s">
         <v>233</v>
       </c>
       <c r="AO19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AP19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AQ19" t="s">
         <v>164</v>
@@ -6297,7 +6297,7 @@
         <v>239</v>
       </c>
       <c r="AU19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV19" t="s">
         <v>199</v>
@@ -6371,10 +6371,10 @@
         <v>72</v>
       </c>
       <c r="Y20" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z20" t="s">
         <v>348</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>349</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6401,16 +6401,16 @@
         <v>134</v>
       </c>
       <c r="AL20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM20" t="s">
         <v>233</v>
       </c>
       <c r="AO20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AP20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -6419,7 +6419,7 @@
         <v>239</v>
       </c>
       <c r="AU20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV20" t="s">
         <v>199</v>
@@ -6428,7 +6428,7 @@
         <v>209</v>
       </c>
       <c r="AX20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.35">
@@ -6493,7 +6493,7 @@
         <v>70</v>
       </c>
       <c r="Z21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF21">
         <v>4.2</v>
@@ -6520,7 +6520,7 @@
         <v>132</v>
       </c>
       <c r="AL21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -6529,7 +6529,7 @@
         <v>162</v>
       </c>
       <c r="AO21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -6538,10 +6538,10 @@
         <v>170</v>
       </c>
       <c r="AT21" t="s">
+        <v>358</v>
+      </c>
+      <c r="AU21" t="s">
         <v>359</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>360</v>
       </c>
       <c r="AV21" t="s">
         <v>238</v>
@@ -6550,7 +6550,7 @@
         <v>209</v>
       </c>
       <c r="AX21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -6618,7 +6618,7 @@
         <v>74</v>
       </c>
       <c r="Z22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -6645,7 +6645,7 @@
         <v>113</v>
       </c>
       <c r="AL22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -6654,7 +6654,7 @@
         <v>160</v>
       </c>
       <c r="AO22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -6666,7 +6666,7 @@
         <v>175</v>
       </c>
       <c r="AU22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AV22" t="s">
         <v>213</v>
@@ -6675,7 +6675,7 @@
         <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -6802,7 +6802,7 @@
         <v>215</v>
       </c>
       <c r="Z24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA24">
         <v>3</v>
@@ -6823,7 +6823,7 @@
         <v>117</v>
       </c>
       <c r="AL24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM24" t="s">
         <v>232</v>
@@ -6832,16 +6832,16 @@
         <v>160</v>
       </c>
       <c r="AO24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ24" t="s">
         <v>164</v>
       </c>
       <c r="AT24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AV24" t="s">
         <v>206</v>
@@ -6850,7 +6850,7 @@
         <v>209</v>
       </c>
       <c r="AX24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
@@ -6921,7 +6921,7 @@
         <v>215</v>
       </c>
       <c r="Z25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA25">
         <v>3</v>
@@ -6942,7 +6942,7 @@
         <v>117</v>
       </c>
       <c r="AL25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM25" t="s">
         <v>232</v>
@@ -6951,16 +6951,16 @@
         <v>160</v>
       </c>
       <c r="AO25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
       <c r="AT25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AV25" t="s">
         <v>200</v>
@@ -6969,7 +6969,7 @@
         <v>209</v>
       </c>
       <c r="AX25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -7040,7 +7040,7 @@
         <v>215</v>
       </c>
       <c r="Z26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA26">
         <v>3</v>
@@ -7061,7 +7061,7 @@
         <v>117</v>
       </c>
       <c r="AL26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM26" t="s">
         <v>232</v>
@@ -7070,16 +7070,16 @@
         <v>161</v>
       </c>
       <c r="AO26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
       <c r="AT26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AV26" t="s">
         <v>206</v>
@@ -7088,7 +7088,7 @@
         <v>209</v>
       </c>
       <c r="AX26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.35">
@@ -7159,7 +7159,7 @@
         <v>215</v>
       </c>
       <c r="Z27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA27">
         <v>3</v>
@@ -7180,7 +7180,7 @@
         <v>117</v>
       </c>
       <c r="AL27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM27" t="s">
         <v>232</v>
@@ -7189,16 +7189,16 @@
         <v>161</v>
       </c>
       <c r="AO27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AT27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AV27" t="s">
         <v>200</v>
@@ -7207,7 +7207,7 @@
         <v>209</v>
       </c>
       <c r="AX27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.35">
@@ -7484,7 +7484,7 @@
         <v>216</v>
       </c>
       <c r="Z32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         <v>117</v>
       </c>
       <c r="AL32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM32" t="s">
         <v>232</v>
@@ -7514,7 +7514,7 @@
         <v>161</v>
       </c>
       <c r="AO32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -7526,19 +7526,19 @@
         <v>175</v>
       </c>
       <c r="AT32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AV32" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AW32" t="s">
         <v>209</v>
       </c>
       <c r="AX32" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
@@ -9845,14 +9845,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
